--- a/src/predicciones/holt_winters/producto_180.xlsx
+++ b/src/predicciones/holt_winters/producto_180.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,13 +386,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,167 +404,2180 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44930</v>
       </c>
       <c r="B2">
-        <v>1.833140251209112</v>
+        <v>3.387213651189321</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44931</v>
       </c>
       <c r="B3">
-        <v>1.704152603567682</v>
+        <v>3.388747806111994</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44934</v>
       </c>
       <c r="B4">
-        <v>1.106853535326141</v>
+        <v>2.872904081599442</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44942</v>
       </c>
       <c r="B5">
-        <v>1.051589175267664</v>
+        <v>3.301940519241773</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44943</v>
       </c>
       <c r="B6">
-        <v>1.769839327733452</v>
+        <v>2.882604072783137</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44945</v>
       </c>
       <c r="B7">
-        <v>0.81485453080101</v>
+        <v>3.49024586264014</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
+        <v>44947</v>
+      </c>
+      <c r="B8">
+        <v>3.028474448669484</v>
+      </c>
+      <c r="C8">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0.9970119206948084</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
+        <v>44948</v>
+      </c>
+      <c r="B9">
+        <v>3.41363873786872</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>44949</v>
+      </c>
+      <c r="B10">
+        <v>3.415172892791392</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>44950</v>
+      </c>
+      <c r="B11">
+        <v>2.89932916827884</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>44953</v>
+      </c>
+      <c r="B12">
+        <v>3.328365605921171</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>44959</v>
+      </c>
+      <c r="B13">
+        <v>2.909029159462535</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>44960</v>
+      </c>
+      <c r="B14">
+        <v>3.516670949319538</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>44961</v>
+      </c>
+      <c r="B15">
+        <v>3.054899535348882</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>44971</v>
+      </c>
+      <c r="B16">
+        <v>3.440063824548118</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>44973</v>
+      </c>
+      <c r="B17">
+        <v>3.44159797947079</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>44974</v>
+      </c>
+      <c r="B18">
+        <v>2.925754254958238</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>44977</v>
+      </c>
+      <c r="B19">
+        <v>3.35479069260057</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
+        <v>44982</v>
+      </c>
+      <c r="B20">
+        <v>2.935454246141933</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>44983</v>
+      </c>
+      <c r="B21">
+        <v>3.543096035998937</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>44985</v>
+      </c>
+      <c r="B22">
+        <v>3.08132462202828</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>44987</v>
+      </c>
+      <c r="B23">
+        <v>3.466488911227516</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>44988</v>
+      </c>
+      <c r="B24">
+        <v>3.468023066150189</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>44991</v>
+      </c>
+      <c r="B25">
+        <v>2.952179341637637</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>44992</v>
+      </c>
+      <c r="B26">
+        <v>3.381215779279968</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>44994</v>
+      </c>
+      <c r="B27">
+        <v>2.961879332821332</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>44995</v>
+      </c>
+      <c r="B28">
+        <v>3.569521122678335</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>44998</v>
+      </c>
+      <c r="B29">
+        <v>3.107749708707678</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>45000</v>
+      </c>
+      <c r="B30">
+        <v>3.492913997906914</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>45005</v>
+      </c>
+      <c r="B31">
+        <v>3.494448152829587</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>45006</v>
+      </c>
+      <c r="B32">
+        <v>2.978604428317035</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>45008</v>
+      </c>
+      <c r="B33">
+        <v>3.407640865959366</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>45010</v>
+      </c>
+      <c r="B34">
+        <v>2.98830441950073</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>45012</v>
+      </c>
+      <c r="B35">
+        <v>3.595946209357733</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>45013</v>
+      </c>
+      <c r="B36">
+        <v>3.134174795387077</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>45014</v>
+      </c>
+      <c r="B37">
+        <v>3.519339084586313</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>45018</v>
+      </c>
+      <c r="B38">
+        <v>3.520873239508985</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>45019</v>
+      </c>
+      <c r="B39">
+        <v>3.005029514996433</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>45021</v>
+      </c>
+      <c r="B40">
+        <v>3.434065952638764</v>
+      </c>
+      <c r="C40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>45022</v>
+      </c>
+      <c r="B41">
+        <v>3.014729506180128</v>
+      </c>
+      <c r="C41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>45031</v>
+      </c>
+      <c r="B42">
+        <v>3.622371296037132</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>45032</v>
+      </c>
+      <c r="B43">
+        <v>3.160599882066475</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>45033</v>
+      </c>
+      <c r="B44">
+        <v>3.545764171265711</v>
+      </c>
+      <c r="C44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>45035</v>
+      </c>
+      <c r="B45">
+        <v>3.547298326188383</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
+        <v>45039</v>
+      </c>
+      <c r="B46">
+        <v>3.031454601675831</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
+        <v>45040</v>
+      </c>
+      <c r="B47">
+        <v>3.460491039318163</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
+        <v>45043</v>
+      </c>
+      <c r="B48">
+        <v>3.041154592859526</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
+        <v>45044</v>
+      </c>
+      <c r="B49">
+        <v>3.64879638271653</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
+        <v>45046</v>
+      </c>
+      <c r="B50">
+        <v>3.187024968745873</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
+        <v>45048</v>
+      </c>
+      <c r="B51">
+        <v>3.572189257945109</v>
+      </c>
+      <c r="C51">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
+        <v>45049</v>
+      </c>
+      <c r="B52">
+        <v>3.573723412867782</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
+        <v>45051</v>
+      </c>
+      <c r="B53">
+        <v>3.057879688355229</v>
+      </c>
+      <c r="C53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
+        <v>45054</v>
+      </c>
+      <c r="B54">
+        <v>3.486916125997561</v>
+      </c>
+      <c r="C54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2">
+        <v>45055</v>
+      </c>
+      <c r="B55">
+        <v>3.067579679538925</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
+        <v>45057</v>
+      </c>
+      <c r="B56">
+        <v>3.675221469395928</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
+        <v>45058</v>
+      </c>
+      <c r="B57">
+        <v>3.213450055425271</v>
+      </c>
+      <c r="C57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
+        <v>45059</v>
+      </c>
+      <c r="B58">
+        <v>3.598614344624507</v>
+      </c>
+      <c r="C58">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>1.778803716726028</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
+        <v>45060</v>
+      </c>
+      <c r="B59">
+        <v>3.60014849954718</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
+        <v>45062</v>
+      </c>
+      <c r="B60">
+        <v>3.084304775034628</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2">
+        <v>45068</v>
+      </c>
+      <c r="B61">
+        <v>3.513341212676959</v>
+      </c>
+      <c r="C61">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>1.649816069084598</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>1.052517000843057</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>0.9972526407845803</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>1.715502793250367</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>0.7605179963179258</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>0.9426753862117244</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>1.724467182242944</v>
-      </c>
-      <c r="C16">
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
+        <v>45069</v>
+      </c>
+      <c r="B62">
+        <v>3.094004766218323</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2">
+        <v>45070</v>
+      </c>
+      <c r="B63">
+        <v>3.701646556075326</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2">
+        <v>45071</v>
+      </c>
+      <c r="B64">
+        <v>3.23987514210467</v>
+      </c>
+      <c r="C64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2">
+        <v>45073</v>
+      </c>
+      <c r="B65">
+        <v>3.625039431303906</v>
+      </c>
+      <c r="C65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2">
+        <v>45074</v>
+      </c>
+      <c r="B66">
+        <v>3.626573586226578</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2">
+        <v>45077</v>
+      </c>
+      <c r="B67">
+        <v>3.110729861714026</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="2">
+        <v>45080</v>
+      </c>
+      <c r="B68">
+        <v>3.539766299356357</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2">
+        <v>45081</v>
+      </c>
+      <c r="B69">
+        <v>3.120429852897721</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2">
+        <v>45082</v>
+      </c>
+      <c r="B70">
+        <v>3.728071642754725</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2">
+        <v>45083</v>
+      </c>
+      <c r="B71">
+        <v>3.266300228784068</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2">
+        <v>45084</v>
+      </c>
+      <c r="B72">
+        <v>3.651464517983304</v>
+      </c>
+      <c r="C72">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2">
+        <v>45086</v>
+      </c>
+      <c r="B73">
+        <v>3.652998672905976</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2">
+        <v>45088</v>
+      </c>
+      <c r="B74">
+        <v>3.137154948393424</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2">
+        <v>45089</v>
+      </c>
+      <c r="B75">
+        <v>3.566191386035756</v>
+      </c>
+      <c r="C75">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2">
+        <v>45092</v>
+      </c>
+      <c r="B76">
+        <v>3.146854939577119</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2">
+        <v>45093</v>
+      </c>
+      <c r="B77">
+        <v>3.754496729434122</v>
+      </c>
+      <c r="C77">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2">
+        <v>45094</v>
+      </c>
+      <c r="B78">
+        <v>3.292725315463466</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2">
+        <v>45095</v>
+      </c>
+      <c r="B79">
+        <v>3.677889604662702</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2">
+        <v>45096</v>
+      </c>
+      <c r="B80">
+        <v>3.679423759585375</v>
+      </c>
+      <c r="C80">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2">
+        <v>45097</v>
+      </c>
+      <c r="B81">
+        <v>3.163580035072822</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2">
+        <v>45099</v>
+      </c>
+      <c r="B82">
+        <v>3.592616472715154</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2">
+        <v>45100</v>
+      </c>
+      <c r="B83">
+        <v>3.173280026256518</v>
+      </c>
+      <c r="C83">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2">
+        <v>45101</v>
+      </c>
+      <c r="B84">
+        <v>3.780921816113521</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2">
+        <v>45104</v>
+      </c>
+      <c r="B85">
+        <v>3.319150402142864</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2">
+        <v>45106</v>
+      </c>
+      <c r="B86">
+        <v>3.7043146913421</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B87">
+        <v>3.705848846264773</v>
+      </c>
+      <c r="C87">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2">
+        <v>45109</v>
+      </c>
+      <c r="B88">
+        <v>3.190005121752221</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="2">
+        <v>45110</v>
+      </c>
+      <c r="B89">
+        <v>3.619041559394552</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2">
+        <v>45114</v>
+      </c>
+      <c r="B90">
+        <v>3.199705112935916</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2">
+        <v>45115</v>
+      </c>
+      <c r="B91">
+        <v>3.807346902792919</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2">
+        <v>45118</v>
+      </c>
+      <c r="B92">
+        <v>3.345575488822263</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2">
+        <v>45120</v>
+      </c>
+      <c r="B93">
+        <v>3.730739778021499</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2">
+        <v>45122</v>
+      </c>
+      <c r="B94">
+        <v>3.732273932944171</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2">
+        <v>45125</v>
+      </c>
+      <c r="B95">
+        <v>3.216430208431619</v>
+      </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="2">
+        <v>45134</v>
+      </c>
+      <c r="B96">
+        <v>3.64546664607395</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="2">
+        <v>45137</v>
+      </c>
+      <c r="B97">
+        <v>3.226130199615314</v>
+      </c>
+      <c r="C97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="2">
+        <v>45138</v>
+      </c>
+      <c r="B98">
+        <v>3.833771989472318</v>
+      </c>
+      <c r="C98">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="2">
+        <v>45139</v>
+      </c>
+      <c r="B99">
+        <v>3.372000575501661</v>
+      </c>
+      <c r="C99">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="2">
+        <v>45140</v>
+      </c>
+      <c r="B100">
+        <v>3.757164864700897</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2">
+        <v>45142</v>
+      </c>
+      <c r="B101">
+        <v>3.758699019623569</v>
+      </c>
+      <c r="C101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2">
+        <v>45144</v>
+      </c>
+      <c r="B102">
+        <v>3.242855295111017</v>
+      </c>
+      <c r="C102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="2">
+        <v>45145</v>
+      </c>
+      <c r="B103">
+        <v>3.671891732753349</v>
+      </c>
+      <c r="C103">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2">
+        <v>45146</v>
+      </c>
+      <c r="B104">
+        <v>3.252555286294712</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B105">
+        <v>3.860197076151715</v>
+      </c>
+      <c r="C105">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2">
+        <v>45148</v>
+      </c>
+      <c r="B106">
+        <v>3.398425662181059</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2">
+        <v>45149</v>
+      </c>
+      <c r="B107">
+        <v>3.783589951380295</v>
+      </c>
+      <c r="C107">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2">
+        <v>45150</v>
+      </c>
+      <c r="B108">
+        <v>3.785124106302968</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2">
+        <v>45152</v>
+      </c>
+      <c r="B109">
+        <v>3.269280381790415</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2">
+        <v>45156</v>
+      </c>
+      <c r="B110">
+        <v>3.698316819432747</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="2">
+        <v>45157</v>
+      </c>
+      <c r="B111">
+        <v>3.27898037297411</v>
+      </c>
+      <c r="C111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2">
+        <v>45158</v>
+      </c>
+      <c r="B112">
+        <v>3.886622162831114</v>
+      </c>
+      <c r="C112">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2">
+        <v>45160</v>
+      </c>
+      <c r="B113">
+        <v>3.424850748860457</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2">
+        <v>45161</v>
+      </c>
+      <c r="B114">
+        <v>3.810015038059693</v>
+      </c>
+      <c r="C114">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2">
+        <v>45165</v>
+      </c>
+      <c r="B115">
+        <v>3.811549192982366</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2">
+        <v>45166</v>
+      </c>
+      <c r="B116">
+        <v>3.295705468469814</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2">
+        <v>45168</v>
+      </c>
+      <c r="B117">
+        <v>3.724741906112145</v>
+      </c>
+      <c r="C117">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2">
+        <v>45169</v>
+      </c>
+      <c r="B118">
+        <v>3.305405459653509</v>
+      </c>
+      <c r="C118">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2">
+        <v>45170</v>
+      </c>
+      <c r="B119">
+        <v>3.913047249510512</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="2">
+        <v>45171</v>
+      </c>
+      <c r="B120">
+        <v>3.451275835539856</v>
+      </c>
+      <c r="C120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="2">
+        <v>45179</v>
+      </c>
+      <c r="B121">
+        <v>3.836440124739092</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B122">
+        <v>3.837974279661764</v>
+      </c>
+      <c r="C122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="2">
+        <v>45181</v>
+      </c>
+      <c r="B123">
+        <v>3.322130555149212</v>
+      </c>
+      <c r="C123">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="2">
+        <v>45182</v>
+      </c>
+      <c r="B124">
+        <v>3.751166992791543</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="2">
+        <v>45183</v>
+      </c>
+      <c r="B125">
+        <v>3.331830546332907</v>
+      </c>
+      <c r="C125">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="2">
+        <v>45184</v>
+      </c>
+      <c r="B126">
+        <v>3.939472336189911</v>
+      </c>
+      <c r="C126">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="2">
+        <v>45185</v>
+      </c>
+      <c r="B127">
+        <v>3.477700922219254</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="2">
+        <v>45186</v>
+      </c>
+      <c r="B128">
+        <v>3.86286521141849</v>
+      </c>
+      <c r="C128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="2">
+        <v>45189</v>
+      </c>
+      <c r="B129">
+        <v>3.864399366341162</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="2">
+        <v>45190</v>
+      </c>
+      <c r="B130">
+        <v>3.34855564182861</v>
+      </c>
+      <c r="C130">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="2">
+        <v>45191</v>
+      </c>
+      <c r="B131">
+        <v>3.777592079470942</v>
+      </c>
+      <c r="C131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="2">
+        <v>45192</v>
+      </c>
+      <c r="B132">
+        <v>3.358255633012305</v>
+      </c>
+      <c r="C132">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="2">
+        <v>45193</v>
+      </c>
+      <c r="B133">
+        <v>3.965897422869308</v>
+      </c>
+      <c r="C133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="2">
+        <v>45198</v>
+      </c>
+      <c r="B134">
+        <v>3.504126008898652</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="2">
+        <v>45199</v>
+      </c>
+      <c r="B135">
+        <v>3.889290298097889</v>
+      </c>
+      <c r="C135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="2">
+        <v>45210</v>
+      </c>
+      <c r="B136">
+        <v>3.890824453020561</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="2">
+        <v>45211</v>
+      </c>
+      <c r="B137">
+        <v>3.374980728508008</v>
+      </c>
+      <c r="C137">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="2">
+        <v>45212</v>
+      </c>
+      <c r="B138">
+        <v>3.80401716615034</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="2">
+        <v>45214</v>
+      </c>
+      <c r="B139">
+        <v>3.384680719691703</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="2">
+        <v>45215</v>
+      </c>
+      <c r="B140">
+        <v>3.992322509548707</v>
+      </c>
+      <c r="C140">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="2">
+        <v>45216</v>
+      </c>
+      <c r="B141">
+        <v>3.53055109557805</v>
+      </c>
+      <c r="C141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="2">
+        <v>45220</v>
+      </c>
+      <c r="B142">
+        <v>3.915715384777286</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="2">
+        <v>45221</v>
+      </c>
+      <c r="B143">
+        <v>3.917249539699959</v>
+      </c>
+      <c r="C143">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="2">
+        <v>45223</v>
+      </c>
+      <c r="B144">
+        <v>3.401405815187407</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="2">
+        <v>45233</v>
+      </c>
+      <c r="B145">
+        <v>3.830442252829738</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="2">
+        <v>45235</v>
+      </c>
+      <c r="B146">
+        <v>3.411105806371102</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="2">
+        <v>45237</v>
+      </c>
+      <c r="B147">
+        <v>4.018747596228105</v>
+      </c>
+      <c r="C147">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="2">
+        <v>45239</v>
+      </c>
+      <c r="B148">
+        <v>3.556976182257449</v>
+      </c>
+      <c r="C148">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="2">
+        <v>45241</v>
+      </c>
+      <c r="B149">
+        <v>3.942140471456685</v>
+      </c>
+      <c r="C149">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="2">
+        <v>45242</v>
+      </c>
+      <c r="B150">
+        <v>3.943674626379357</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="2">
+        <v>45245</v>
+      </c>
+      <c r="B151">
+        <v>3.427830901866805</v>
+      </c>
+      <c r="C151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="2">
+        <v>45249</v>
+      </c>
+      <c r="B152">
+        <v>3.856867339509136</v>
+      </c>
+      <c r="C152">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="2">
+        <v>45251</v>
+      </c>
+      <c r="B153">
+        <v>3.4375308930505</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="2">
+        <v>45255</v>
+      </c>
+      <c r="B154">
+        <v>4.045172682907504</v>
+      </c>
+      <c r="C154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="2">
+        <v>45256</v>
+      </c>
+      <c r="B155">
+        <v>3.583401268936847</v>
+      </c>
+      <c r="C155">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B156">
+        <v>3.968565558136083</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="2">
+        <v>45260</v>
+      </c>
+      <c r="B157">
+        <v>3.970099713058755</v>
+      </c>
+      <c r="C157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="2">
+        <v>45262</v>
+      </c>
+      <c r="B158">
+        <v>3.454255988546203</v>
+      </c>
+      <c r="C158">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="2">
+        <v>45263</v>
+      </c>
+      <c r="B159">
+        <v>3.883292426188535</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="2">
+        <v>45264</v>
+      </c>
+      <c r="B160">
+        <v>3.463955979729898</v>
+      </c>
+      <c r="C160">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="2">
+        <v>45266</v>
+      </c>
+      <c r="B161">
+        <v>4.071597769586902</v>
+      </c>
+      <c r="C161">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="2">
+        <v>45270</v>
+      </c>
+      <c r="B162">
+        <v>3.609826355616245</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="2">
+        <v>45271</v>
+      </c>
+      <c r="B163">
+        <v>3.994990644815481</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="2">
+        <v>45272</v>
+      </c>
+      <c r="B164">
+        <v>3.996524799738154</v>
+      </c>
+      <c r="C164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="2">
+        <v>45273</v>
+      </c>
+      <c r="B165">
+        <v>3.480681075225601</v>
+      </c>
+      <c r="C165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="2">
+        <v>45275</v>
+      </c>
+      <c r="B166">
+        <v>3.909717512867933</v>
+      </c>
+      <c r="C166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="2">
+        <v>45277</v>
+      </c>
+      <c r="B167">
+        <v>3.490381066409296</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="2">
+        <v>45278</v>
+      </c>
+      <c r="B168">
+        <v>4.0980228562663</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="2">
+        <v>45279</v>
+      </c>
+      <c r="B169">
+        <v>3.636251442295643</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="2">
+        <v>45280</v>
+      </c>
+      <c r="B170">
+        <v>4.021415731494879</v>
+      </c>
+      <c r="C170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="2">
+        <v>45281</v>
+      </c>
+      <c r="B171">
+        <v>4.022949886417552</v>
+      </c>
+      <c r="C171">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="2">
+        <v>45284</v>
+      </c>
+      <c r="B172">
+        <v>3.507106161905</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="2">
+        <v>45287</v>
+      </c>
+      <c r="B173">
+        <v>3.936142599547331</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="2">
+        <v>45288</v>
+      </c>
+      <c r="B174">
+        <v>3.516806153088695</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="2">
+        <v>45291</v>
+      </c>
+      <c r="B175">
+        <v>4.124447942945698</v>
+      </c>
+      <c r="C175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="2">
+        <v>45300</v>
+      </c>
+      <c r="B176">
+        <v>3.662676528975042</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="2">
+        <v>45306</v>
+      </c>
+      <c r="B177">
+        <v>4.047840818174278</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="2">
+        <v>45311</v>
+      </c>
+      <c r="B178">
+        <v>4.049374973096951</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="2">
+        <v>45312</v>
+      </c>
+      <c r="B179">
+        <v>3.533531248584398</v>
+      </c>
+      <c r="C179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="2">
+        <v>45316</v>
+      </c>
+      <c r="B180">
+        <v>3.96256768622673</v>
+      </c>
+      <c r="C180">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="2">
+        <v>45318</v>
+      </c>
+      <c r="B181">
+        <v>3.543231239768093</v>
+      </c>
+      <c r="C181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="2">
+        <v>45319</v>
+      </c>
+      <c r="B182">
+        <v>4.150873029625097</v>
+      </c>
+      <c r="C182">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="2">
+        <v>45320</v>
+      </c>
+      <c r="B183">
+        <v>3.68910161565444</v>
+      </c>
+      <c r="C183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B184">
+        <v>4.074265904853676</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B185">
+        <v>4.075800059776348</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="2">
+        <v>45328</v>
+      </c>
+      <c r="B186">
+        <v>3.559956335263796</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B187">
+        <v>3.988992772906128</v>
+      </c>
+      <c r="C187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="2">
+        <v>45332</v>
+      </c>
+      <c r="B188">
+        <v>3.569656326447491</v>
+      </c>
+      <c r="C188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="2">
+        <v>45335</v>
+      </c>
+      <c r="B189">
+        <v>4.177298116304495</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="2">
+        <v>45337</v>
+      </c>
+      <c r="B190">
+        <v>3.715526702333838</v>
+      </c>
+      <c r="C190">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="2">
+        <v>45338</v>
+      </c>
+      <c r="B191">
+        <v>4.100690991533074</v>
+      </c>
+      <c r="C191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="2">
+        <v>45340</v>
+      </c>
+      <c r="B192">
+        <v>4.102225146455747</v>
+      </c>
+      <c r="C192">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B193">
+        <v>3.586381421943194</v>
+      </c>
+      <c r="C193">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="2">
+        <v>45343</v>
+      </c>
+      <c r="B194">
+        <v>4.015417859585526</v>
+      </c>
+      <c r="C194">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="2">
+        <v>45344</v>
+      </c>
+      <c r="B195">
+        <v>3.59608141312689</v>
+      </c>
+      <c r="C195">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="2">
+        <v>45345</v>
+      </c>
+      <c r="B196">
+        <v>4.203723202983893</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="2">
+        <v>45346</v>
+      </c>
+      <c r="B197">
+        <v>3.741951789013237</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="2">
+        <v>45347</v>
+      </c>
+      <c r="B198">
+        <v>4.127116078212472</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B199">
+        <v>4.128650233135145</v>
+      </c>
+      <c r="C199">
         <v>1</v>
       </c>
     </row>
